--- a/medicine/Mort/Six_Feet_Under_(série_télévisée)/Six_Feet_Under_(série_télévisée).xlsx
+++ b/medicine/Mort/Six_Feet_Under_(série_télévisée)/Six_Feet_Under_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Six_Feet_Under_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Six Feet Under ou Six pieds sous terre[1] est une série télévisée américaine en 63 épisodes d'environ 55 minutes créée par Alan Ball et diffusée entre le 3 juin 2001 et le 21 août 2005 sur HBO.
-Au Québec, elle a été diffusée à partir du 5 octobre 2001 à Super Écran[2] puis rediffusée à partir du 21 juin 2003 sur Séries+[3] puis en clair à partir du 1er mai 2009 à la Télévision de Radio-Canada[4] ; en France entre le 6 décembre 2001 et le 23 avril 2006 sur Jimmy[5], sur Canal+ (les deux premières saisons), à partir du 9 septembre 2004 sur France 2 (les trois premières saisons)[6] et à partir du 23 septembre 2006 sur France 4 (les cinq saisons)[7] ; en Belgique sur Plug TV[8] et Be TV[9] et en Suisse sur la TSR[10].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Six Feet Under ou Six pieds sous terre est une série télévisée américaine en 63 épisodes d'environ 55 minutes créée par Alan Ball et diffusée entre le 3 juin 2001 et le 21 août 2005 sur HBO.
+Au Québec, elle a été diffusée à partir du 5 octobre 2001 à Super Écran puis rediffusée à partir du 21 juin 2003 sur Séries+ puis en clair à partir du 1er mai 2009 à la Télévision de Radio-Canada ; en France entre le 6 décembre 2001 et le 23 avril 2006 sur Jimmy, sur Canal+ (les deux premières saisons), à partir du 9 septembre 2004 sur France 2 (les trois premières saisons) et à partir du 23 septembre 2006 sur France 4 (les cinq saisons) ; en Belgique sur Plug TV et Be TV et en Suisse sur la TSR.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Six_Feet_Under_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Los Angeles, la famille Fisher est à la tête d'une société de pompes funèbres Fisher &amp; Fils, fondée par le père de famille, Nathaniel Fisher. À la mort de ce dernier, ses deux fils, Nathaniel Jr., qui a toujours dit ne jamais vouloir prendre la suite de son père, et David, l'introverti, reprennent l'entreprise familiale dont ils viennent d'hériter. Claire, la benjamine de la famille, s'efforce de trouver sa voie et leur mère Ruth, doit assumer son rôle de femme.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Six_Feet_Under_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Peter Krause (VF : Guillaume Orsat) : Nathaniel « Nate » Samuel Fisher, Jr.
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Peter Krause (VF : Guillaume Orsat) : Nathaniel « Nate » Samuel Fisher, Jr.
 Michael C. Hall (VF : Emmanuel Curtil) : David James Fisher
 Frances Conroy (VF : Anne Rochant) : Ruth O'Connor-Fisher
 Lauren Ambrose (VF : Barbara Kelsch) : Claire Simone Fisher
@@ -559,9 +578,43 @@
 Lili Taylor (VF : Brigitte Berges) : Lisa Kimmel-Fisher (à partir de la saison 2)
 Brenna et Bronwyn Tosh : Maya Fisher (à partir de la saison 3)
 James Cromwell (VF : Michel Ruhl) : George Sibley (à partir de la saison 3)
-Tina Holmes (VF : Cécile Musitelli) : Maggie Sibley (à partir de la saison 4)
-Acteurs récurrents
-Eric Balfour (VF : Franck Monsigny) : Gabriel « Gabe » Dimas (saisons 1 et 2)
+Tina Holmes (VF : Cécile Musitelli) : Maggie Sibley (à partir de la saison 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Six_Feet_Under_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eric Balfour (VF : Franck Monsigny) : Gabriel « Gabe » Dimas (saisons 1 et 2)
 Joanna Cassidy (VF : Catherine Davenier) : Margaret Chenowith
 Robert Foxworth (VF : Philippe Catoire) : Bernard Asa Chenowith (saisons 1, 2 et 3)
 Ed O'Ross (VF : Thierry Murzeau) : Nikolaï (saisons 1, 2 et 5)
@@ -580,35 +633,9 @@
 Chris Messina (VF : Guillaume Clayssen) : Ted Fairwell (saison 5)
 Idalis DeLeón (en) (VF : Ariane Deviègue) : Sophia "Infinity"
 Anne Ramsay (VF : Isabelle Langlois) : Jackie Feldman (saison 5)
- Source et légende : version française (VF) sur RS Doublage[11]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+ Source et légende : version française (VF) sur RS Doublage</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Six_Feet_Under_(série_télévisée)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,14 +658,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Univers de la série</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Personnages</t>
-        </is>
-      </c>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -646,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Six_Feet_Under_(série_télévisée)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,10 +691,49 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ouvrage
-Tristan Garcia - Six Feet Under. Nos vies sans destin, PUF, Septembre 2012  (ISBN 978-2-13-059421-5)
-Musique
-La bande originale de la série se compose de deux volumes. Le premier volume, Six Feet Under: Music From The HBO Original Series, est sorti en 2002 et contient dix-sept titres de genres éclectiques (la dix-septième piste est un bonus caché).
+          <t>Ouvrage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tristan Garcia - Six Feet Under. Nos vies sans destin, PUF, Septembre 2012  (ISBN 978-2-13-059421-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Six_Feet_Under_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bande originale de la série se compose de deux volumes. Le premier volume, Six Feet Under: Music From The HBO Original Series, est sorti en 2002 et contient dix-sept titres de genres éclectiques (la dix-septième piste est un bonus caché).
 Liste des morceaux :
 Six Feet Under Title Theme - Thomas Newman
 Heaven - Lamb
@@ -703,10 +767,45 @@
 Transatlanticism - Death Cab For Cutie
 Cold Wind - Arcade Fire
 Lonely Little Petunia - Imogen Heap
-Toutes les œuvres musicales entendues dans Six Feet Under ne sont pas compilées. Ainsi, All Apologies de Nirvana (qui conclut le dixième épisode de la cinquième saison) et I Just Want To Celebrate (Mocean Worker remix) de Rare Earth n'apparaissent sur aucun des deux albums officiels de la série : le guide des épisodes sur le site officiel de la série détaille toutes les musiques utilisées pour chaque épisode[12].
+Toutes les œuvres musicales entendues dans Six Feet Under ne sont pas compilées. Ainsi, All Apologies de Nirvana (qui conclut le dixième épisode de la cinquième saison) et I Just Want To Celebrate (Mocean Worker remix) de Rare Earth n'apparaissent sur aucun des deux albums officiels de la série : le guide des épisodes sur le site officiel de la série détaille toutes les musiques utilisées pour chaque épisode.
 Par-delà les musiques utilisées, en compositions arrangées, montées, coupées afin de correspondre à la durée de la séquence et à la nature des images choisies, se tient, tout au long de la série, une bande sonore des plus complètes. Le thème d'ouverture est composé par Thomas Newman. Seul le générique l'est. Toutes les autres ambiances qui sont toujours structurées par un piano, violon ou violoncelle, au minimum, emportant des rappels de clarinette sont la création de Richard Marvin et non de Thomas Newman.
-DVD
-Six Feet Under - Saison 1 (1er janvier 2006) (ASIN B000K7UDCS)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Six_Feet_Under_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DVD</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Six Feet Under - Saison 1 (1er janvier 2006) (ASIN B000K7UDCS)
 Six Feet Under - Saison 2 (1er janvier 2006) (ASIN B000K7UCTM)
 Six Feet Under - Saison 3 (1er janvier 2006) (ASIN B000K7UD0U)
 Six Feet Under - Saison 4 (1er janvier 2006) (ASIN B000K7UD78)
@@ -716,62 +815,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Six_Feet_Under_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Critiques et récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série a reçu de très bonnes critiques de la part du Hollywood Reporter, de Variety, et du New York Times[13]. Elle a également reçu plusieurs récompenses, notamment trois Golden Globes et neuf Emmy Awards[14].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série a reçu de très bonnes critiques de la part du Hollywood Reporter, de Variety, et du New York Times. Elle a également reçu plusieurs récompenses, notamment trois Golden Globes et neuf Emmy Awards.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Six_Feet_Under_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Six_Feet_Under_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Emmy Award 2002 : Meilleur réalisateur de série dramatique pour Alan Ball
 Emmy Award 2002 : Meilleur casting pour une série dramatique
